--- a/medicine/Maladie à coronavirus 2019/Conseil_scientifique_Covid-19/Conseil_scientifique_Covid-19.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Conseil_scientifique_Covid-19/Conseil_scientifique_Covid-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conseil scientifique Covid-19 est une organisation française, consultative indépendante qui est chargée de mars 2020 à juillet 2022 d'éclairer la décision publique pour lutter contre la pandémie de Covid-19, en abordant aussi les questions de maintien des infrastructures électriques, numériques, et du maintien de l'ordre. 
 Il est remplacé par le comité de veille et d'anticipation des risques sanitaires (COVARS).
@@ -512,9 +524,11 @@
           <t>Les comités scientifiques durant la pandémie de Covid-19</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus du comité scientifique, d’autres instances ont existé dans la même période : le Comité analyse recherche et expertise et le Conseil d’orientation de la stratégie vaccinale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus du comité scientifique, d’autres instances ont existé dans la même période : le Comité analyse recherche et expertise et le Conseil d’orientation de la stratégie vaccinale.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Création et existence légale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la demande du président de la République française, le conseil scientifique Covid-19 a été institué le 11 mars 2020 par Olivier Véran, ministre des Solidarités et de la Santé, « pour éclairer la décision publique dans la gestion de la situation sanitaire liée au coronavirus »[2]. Présidé par le professeur Jean-François Delfraissy, ce comité compte dix autres experts qui viennent de champs disciplinaires complémentaires[2].
-L’existence légale du comité figure dans le code de la santé publique, dans le chapitre consacré à l’état d’urgence sanitaire, en vigueur du 24 mars 2020 au 31 juillet 2022[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la demande du président de la République française, le conseil scientifique Covid-19 a été institué le 11 mars 2020 par Olivier Véran, ministre des Solidarités et de la Santé, « pour éclairer la décision publique dans la gestion de la situation sanitaire liée au coronavirus ». Présidé par le professeur Jean-François Delfraissy, ce comité compte dix autres experts qui viennent de champs disciplinaires complémentaires.
+L’existence légale du comité figure dans le code de la santé publique, dans le chapitre consacré à l’état d’urgence sanitaire, en vigueur du 24 mars 2020 au 31 juillet 2022.
 Une première réunion informelle entre les scientifiques avait eu lieu le 5 mars à l'Élysée, pour décider de la création de ce comité.
 </t>
         </is>
@@ -576,11 +592,13 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le comité rend périodiquement des avis sur l'état de la catastrophe sanitaire, les connaissances scientifiques qui s'y rapportent et les mesures propres à y mettre un terme, ainsi que sur la durée de leur application[3]. Il a porté en particulier un avis sur la tenue des élections municipales, et étudie aussi les mesures à prendre dans le cadre du confinement de la population française.
-Ce conseil scientifique se réunit tous les jours, physiquement ou par téléphone, et ses avis sont publics et disponibles en ligne. Officiellement indépendant, il peut être saisi par le ministère de la Santé, mais il peut également s’auto-saisir d’une question. Il s’appuie aussi sur des travaux, publiés ou non, de chercheurs étrangers, et peut également inviter des experts extérieurs[4].
-Son fonctionnement est régi par un règlement intérieur[5] et ses membres ont déposé chacun une déclaration publique d'intérêt consultable sur le site du ministère des solidarités et de la santé[6]. Ses recommandations servent notamment à appuyer les décisions prises lors des « Conseils de Défense sanitaire »[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comité rend périodiquement des avis sur l'état de la catastrophe sanitaire, les connaissances scientifiques qui s'y rapportent et les mesures propres à y mettre un terme, ainsi que sur la durée de leur application. Il a porté en particulier un avis sur la tenue des élections municipales, et étudie aussi les mesures à prendre dans le cadre du confinement de la population française.
+Ce conseil scientifique se réunit tous les jours, physiquement ou par téléphone, et ses avis sont publics et disponibles en ligne. Officiellement indépendant, il peut être saisi par le ministère de la Santé, mais il peut également s’auto-saisir d’une question. Il s’appuie aussi sur des travaux, publiés ou non, de chercheurs étrangers, et peut également inviter des experts extérieurs.
+Son fonctionnement est régi par un règlement intérieur et ses membres ont déposé chacun une déclaration publique d'intérêt consultable sur le site du ministère des solidarités et de la santé. Ses recommandations servent notamment à appuyer les décisions prises lors des « Conseils de Défense sanitaire ».
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les experts composant ce conseil scientifique sont (décrets du 3 avril 2020[8],[9] et du 16 février 2021[10] et nomination par le président du Sénat du 28 mars 2020[11]) :
-Simon Cauchemez, Bruno Lina, Denis Malvy et Thierry Lefrançois son nommés en 2022 au comité de veille et d'anticipation des risques sanitaires[18].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les experts composant ce conseil scientifique sont (décrets du 3 avril 2020, et du 16 février 2021 et nomination par le président du Sénat du 28 mars 2020) :
+Simon Cauchemez, Bruno Lina, Denis Malvy et Thierry Lefrançois son nommés en 2022 au comité de veille et d'anticipation des risques sanitaires.
 </t>
         </is>
       </c>
@@ -641,13 +661,15 @@
           <t>Travail du Conseil scientifique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil scientifique a produit 58 avis durant son existence (enjeux des confinements, scénarios pour le post-confinement, territoires d’outre-mer), dont deux en commun avec le Conseil d’orientation de la stratégie vaccinale et le CARE. Il a aussi produit des notes[19].
-L’ensemble de ses avis sont rendus publics[3].
-Concernant l’organisation de son travail, le Conseil se réunit quotidiennement afin d’analyser l’évolution de la situation épidémiologique française, l’impact des stratégies, les nouveaux éléments de connaissance, mais aussi les enjeux sociaux. Sa réflexion est multidisciplinaire comme en témoigne sa composition. Les sources de son travail sont notamment des modélisations mathématiques, des connaissances médicales, fondamentales ou cliniques, des données de sciences sociales et humaines et les évolutions liées au développement de nouvelles technologies. Le Conseil sollicite aussi des personnalités extérieures, afin d’approfondir les travaux plus spécifiques[20].
-Ses propositions sont stratégiques et pragmatiques. Le Conseil a pour but principal d’apporter une aide à la décision publique en fonction des données scientifiques. Le Conseil scientifique a aussi mis en évidence les spécificités de la situation en France à partir d’éléments internationaux, de publications scientifiques ou de rapports produits par différentes institutions[21].
-Le Conseil scientifique a appelé à plusieurs reprises à l’intégration d’une vision citoyenne dans la gestion de cette crise, notamment à travers la création d’un comité de liaison citoyenne[22]. L’ensemble de sa proposition a été révélée par Mediapart[23].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil scientifique a produit 58 avis durant son existence (enjeux des confinements, scénarios pour le post-confinement, territoires d’outre-mer), dont deux en commun avec le Conseil d’orientation de la stratégie vaccinale et le CARE. Il a aussi produit des notes.
+L’ensemble de ses avis sont rendus publics.
+Concernant l’organisation de son travail, le Conseil se réunit quotidiennement afin d’analyser l’évolution de la situation épidémiologique française, l’impact des stratégies, les nouveaux éléments de connaissance, mais aussi les enjeux sociaux. Sa réflexion est multidisciplinaire comme en témoigne sa composition. Les sources de son travail sont notamment des modélisations mathématiques, des connaissances médicales, fondamentales ou cliniques, des données de sciences sociales et humaines et les évolutions liées au développement de nouvelles technologies. Le Conseil sollicite aussi des personnalités extérieures, afin d’approfondir les travaux plus spécifiques.
+Ses propositions sont stratégiques et pragmatiques. Le Conseil a pour but principal d’apporter une aide à la décision publique en fonction des données scientifiques. Le Conseil scientifique a aussi mis en évidence les spécificités de la situation en France à partir d’éléments internationaux, de publications scientifiques ou de rapports produits par différentes institutions.
+Le Conseil scientifique a appelé à plusieurs reprises à l’intégration d’une vision citoyenne dans la gestion de cette crise, notamment à travers la création d’un comité de liaison citoyenne. L’ensemble de sa proposition a été révélée par Mediapart.
 </t>
         </is>
       </c>
@@ -678,14 +700,124 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absence d'évaluation par les pairs
-L'absence de base légale dans les premiers jours à son fonctionnement, d'évaluation par les pairs, de procédure de nomination validée, alors qu'existent déjà l'Agence nationale de santé publique, la Haute Autorité de santé, le HCSP est pointée par une pétition sur l'urgence des libertés sur le site du journal Libération le 16 avril 2020[24].
-Soupçons de conflits d'intérêts avec l'industrie pharmaceutique
-Alors que l'objectif du comité est d'être « totalement indépendant », plusieurs médecins parmi ses membres se sont vu verser personnellement plus de 250 000 € de 2014 à 2019 par différents laboratoires pharmaceutiques en rémunération de différentes interventions (conférences…). Seuls Arnaud Fontanet et Didier Raoult parmi les huit médecins initialement présents au comité n'ont perçu aucune rémunération sur cette période d'après la base Transparence Santé[25].
-Avis sur le maintien des élections municipales françaises de 2020
-Dans ses avis du 12 mars[26], du 14 mars[27] et du 16 mars[28], le conseil scientifique s'est exprimé à trois reprises concernant le maintien des élections municipales françaises de 2020. Celui-ci n'ayant « pas vocation à se substituer aux avis et décisions des institutions publiques compétentes en matière de libertés fondamentales », le comité « n’identifiait pas d’argument scientifique permettant d’associer une annulation du premier tour des élections à la réduction de la progression prévisible de l’épidémie ». Il a pris en compte la réduction du risque infectieux associé à cette annulation d'une part mais aussi « les conséquences sanitaires délétères de possibles débordements, imprévisibles après une annulation impromptue du processus électoral », d'autre part pour préconiser que, si le pouvoir exécutif décidait de maintenir le premier tour des élections municipales, elles devaient être organisées dans des conditions d’hygiène renforcées.
-Avis sur la réouverture des écoles le 11 mai 2020
-L'avis du conseil scientifique est de maintenir les crèches, les écoles, les collèges, les lycées et les universités fermés jusqu’au mois de septembre[29].
+          <t>Absence d'évaluation par les pairs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'absence de base légale dans les premiers jours à son fonctionnement, d'évaluation par les pairs, de procédure de nomination validée, alors qu'existent déjà l'Agence nationale de santé publique, la Haute Autorité de santé, le HCSP est pointée par une pétition sur l'urgence des libertés sur le site du journal Libération le 16 avril 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Soupçons de conflits d'intérêts avec l'industrie pharmaceutique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que l'objectif du comité est d'être « totalement indépendant », plusieurs médecins parmi ses membres se sont vu verser personnellement plus de 250 000 € de 2014 à 2019 par différents laboratoires pharmaceutiques en rémunération de différentes interventions (conférences…). Seuls Arnaud Fontanet et Didier Raoult parmi les huit médecins initialement présents au comité n'ont perçu aucune rémunération sur cette période d'après la base Transparence Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Avis sur le maintien des élections municipales françaises de 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses avis du 12 mars, du 14 mars et du 16 mars, le conseil scientifique s'est exprimé à trois reprises concernant le maintien des élections municipales françaises de 2020. Celui-ci n'ayant « pas vocation à se substituer aux avis et décisions des institutions publiques compétentes en matière de libertés fondamentales », le comité « n’identifiait pas d’argument scientifique permettant d’associer une annulation du premier tour des élections à la réduction de la progression prévisible de l’épidémie ». Il a pris en compte la réduction du risque infectieux associé à cette annulation d'une part mais aussi « les conséquences sanitaires délétères de possibles débordements, imprévisibles après une annulation impromptue du processus électoral », d'autre part pour préconiser que, si le pouvoir exécutif décidait de maintenir le premier tour des élections municipales, elles devaient être organisées dans des conditions d’hygiène renforcées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conseil_scientifique_Covid-19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Avis sur la réouverture des écoles le 11 mai 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avis du conseil scientifique est de maintenir les crèches, les écoles, les collèges, les lycées et les universités fermés jusqu’au mois de septembre.
 </t>
         </is>
       </c>
